--- a/TemporaryFileStorage/courseList3.xlsx
+++ b/TemporaryFileStorage/courseList3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27504"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kavita.thomas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55EE445E-A901-4D30-9B2F-80F78F93EC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{799EAE24-41F4-49C3-8AA4-1823EE2215AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{D88FFFD8-F634-4251-BFDF-C816D12817C9}"/>
   </bookViews>
@@ -730,7 +730,7 @@
     <t>https://experionglobal.percipio.com/assessments/dc156617-24a7-4001-bfad-77b15ee61220?sharelink=_S5YSL9dJ#landing</t>
   </si>
   <si>
-    <t>Analytical Thinking - Assessment</t>
+    <t>Analytical Thinking</t>
   </si>
   <si>
     <t>24m</t>
@@ -1568,47 +1568,47 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1966,15 +1966,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
     </row>
     <row r="2" spans="1:7" ht="15">
       <c r="A2" s="7" t="s">
@@ -2000,11 +2000,11 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2017,9 +2017,9 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="87"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2032,9 +2032,9 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A5" s="87"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
@@ -2049,9 +2049,9 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="87"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
@@ -2066,9 +2066,9 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="88"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -2096,13 +2096,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="90" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="9">
         <v>44806</v>
       </c>
-      <c r="C9" s="89"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
@@ -2117,9 +2117,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="25.5">
-      <c r="A10" s="87"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="90"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2134,9 +2134,9 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="87"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
@@ -2151,9 +2151,9 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="87"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="44"/>
-      <c r="C12" s="90"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
@@ -2168,9 +2168,9 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="88"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="45"/>
-      <c r="C13" s="91"/>
+      <c r="C13" s="95"/>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
@@ -2198,13 +2198,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="90" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="9">
         <v>44807</v>
       </c>
-      <c r="C15" s="89"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
@@ -2219,9 +2219,9 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="87"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="90"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="93"/>
       <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
@@ -2236,9 +2236,9 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="87"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
       <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
@@ -2253,9 +2253,9 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="87"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="90"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="93"/>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
@@ -2270,9 +2270,9 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="88"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="95"/>
       <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
@@ -2298,11 +2298,11 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
       <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
@@ -2317,9 +2317,9 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="87"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
       <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
@@ -2334,9 +2334,9 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="87"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
@@ -2349,9 +2349,9 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="87"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
       <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
@@ -2364,9 +2364,9 @@
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="88"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
+      <c r="A25" s="94"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
       <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
@@ -2392,11 +2392,11 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
       <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
@@ -2411,9 +2411,9 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="87"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
@@ -2428,9 +2428,9 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="88"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="91"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
       <c r="D29" s="2" t="s">
         <v>13</v>
       </c>
@@ -2458,11 +2458,11 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
       <c r="D31" s="2" t="s">
         <v>13</v>
       </c>
@@ -2477,9 +2477,9 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="87"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
       <c r="D32" s="2" t="s">
         <v>13</v>
       </c>
@@ -2494,9 +2494,9 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="88"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
+      <c r="A33" s="94"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
       <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
@@ -2524,11 +2524,11 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="92" t="s">
+      <c r="A35" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="88"/>
       <c r="D35" s="2" t="s">
         <v>13</v>
       </c>
@@ -2543,9 +2543,9 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="92"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="93"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="88"/>
       <c r="D36" s="2" t="s">
         <v>9</v>
       </c>
@@ -2560,9 +2560,9 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="92"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="93"/>
+      <c r="A37" s="87"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="88"/>
       <c r="D37" s="2" t="s">
         <v>9</v>
       </c>
@@ -2577,9 +2577,9 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="92"/>
-      <c r="B38" s="93"/>
-      <c r="C38" s="93"/>
+      <c r="A38" s="87"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="88"/>
       <c r="D38" s="2" t="s">
         <v>9</v>
       </c>
@@ -2592,9 +2592,9 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="92"/>
-      <c r="B39" s="93"/>
-      <c r="C39" s="93"/>
+      <c r="A39" s="87"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="88"/>
       <c r="D39" s="2" t="s">
         <v>9</v>
       </c>
@@ -2620,11 +2620,11 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="86" t="s">
+      <c r="A41" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="89"/>
-      <c r="C41" s="89"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
       <c r="D41" s="2" t="s">
         <v>13</v>
       </c>
@@ -2639,9 +2639,9 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="87"/>
-      <c r="B42" s="90"/>
-      <c r="C42" s="90"/>
+      <c r="A42" s="91"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
       <c r="D42" s="2" t="s">
         <v>9</v>
       </c>
@@ -2654,9 +2654,9 @@
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="88"/>
-      <c r="B43" s="91"/>
-      <c r="C43" s="91"/>
+      <c r="A43" s="94"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
       <c r="D43" s="2" t="s">
         <v>9</v>
       </c>
@@ -2682,11 +2682,11 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="86" t="s">
+      <c r="A45" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="89"/>
-      <c r="C45" s="89"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
       <c r="D45" s="2" t="s">
         <v>13</v>
       </c>
@@ -2701,9 +2701,9 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="87"/>
-      <c r="B46" s="90"/>
-      <c r="C46" s="90"/>
+      <c r="A46" s="91"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="93"/>
       <c r="D46" s="2" t="s">
         <v>13</v>
       </c>
@@ -2718,9 +2718,9 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="87"/>
-      <c r="B47" s="90"/>
-      <c r="C47" s="90"/>
+      <c r="A47" s="91"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="93"/>
       <c r="D47" s="2" t="s">
         <v>9</v>
       </c>
@@ -2733,9 +2733,9 @@
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="87"/>
-      <c r="B48" s="90"/>
-      <c r="C48" s="90"/>
+      <c r="A48" s="91"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="93"/>
       <c r="D48" s="2" t="s">
         <v>9</v>
       </c>
@@ -2791,11 +2791,11 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="92" t="s">
+      <c r="A52" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="93"/>
-      <c r="C52" s="93"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="88"/>
       <c r="D52" s="2" t="s">
         <v>13</v>
       </c>
@@ -2810,9 +2810,9 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="92"/>
-      <c r="B53" s="93"/>
-      <c r="C53" s="93"/>
+      <c r="A53" s="87"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="88"/>
       <c r="D53" s="2" t="s">
         <v>13</v>
       </c>
@@ -2827,9 +2827,9 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="92"/>
-      <c r="B54" s="93"/>
-      <c r="C54" s="93"/>
+      <c r="A54" s="87"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="88"/>
       <c r="D54" s="2" t="s">
         <v>13</v>
       </c>
@@ -2844,9 +2844,9 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="92"/>
-      <c r="B55" s="93"/>
-      <c r="C55" s="93"/>
+      <c r="A55" s="87"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="88"/>
       <c r="D55" s="2" t="s">
         <v>9</v>
       </c>
@@ -2859,9 +2859,9 @@
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="92"/>
-      <c r="B56" s="93"/>
-      <c r="C56" s="93"/>
+      <c r="A56" s="87"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="88"/>
       <c r="D56" s="2" t="s">
         <v>9</v>
       </c>
@@ -2887,11 +2887,11 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="92" t="s">
+      <c r="A58" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="B58" s="93"/>
-      <c r="C58" s="93"/>
+      <c r="B58" s="88"/>
+      <c r="C58" s="88"/>
       <c r="D58" s="2" t="s">
         <v>13</v>
       </c>
@@ -2906,9 +2906,9 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="92"/>
-      <c r="B59" s="93"/>
-      <c r="C59" s="93"/>
+      <c r="A59" s="87"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="88"/>
       <c r="D59" s="2" t="s">
         <v>9</v>
       </c>
@@ -2936,11 +2936,11 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="92" t="s">
+      <c r="A61" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="B61" s="93"/>
-      <c r="C61" s="93"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="88"/>
       <c r="D61" s="2" t="s">
         <v>13</v>
       </c>
@@ -2955,9 +2955,9 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="92"/>
-      <c r="B62" s="93"/>
-      <c r="C62" s="93"/>
+      <c r="A62" s="87"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="88"/>
       <c r="D62" s="2" t="s">
         <v>9</v>
       </c>
@@ -2985,11 +2985,11 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="92" t="s">
+      <c r="A64" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="B64" s="94"/>
-      <c r="C64" s="93"/>
+      <c r="B64" s="89"/>
+      <c r="C64" s="88"/>
       <c r="D64" s="2" t="s">
         <v>13</v>
       </c>
@@ -3002,9 +3002,9 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="92"/>
-      <c r="B65" s="94"/>
-      <c r="C65" s="93"/>
+      <c r="A65" s="87"/>
+      <c r="B65" s="89"/>
+      <c r="C65" s="88"/>
       <c r="D65" s="2" t="s">
         <v>9</v>
       </c>
@@ -3015,9 +3015,9 @@
       <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="92"/>
-      <c r="B66" s="94"/>
-      <c r="C66" s="93"/>
+      <c r="A66" s="87"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="88"/>
       <c r="D66" s="2" t="s">
         <v>9</v>
       </c>
@@ -3043,11 +3043,11 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="92" t="s">
+      <c r="A68" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="B68" s="93"/>
-      <c r="C68" s="93"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="88"/>
       <c r="D68" s="2" t="s">
         <v>13</v>
       </c>
@@ -3062,9 +3062,9 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="92"/>
-      <c r="B69" s="93"/>
-      <c r="C69" s="93"/>
+      <c r="A69" s="87"/>
+      <c r="B69" s="88"/>
+      <c r="C69" s="88"/>
       <c r="D69" s="2" t="s">
         <v>9</v>
       </c>
@@ -3077,9 +3077,9 @@
       <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="92"/>
-      <c r="B70" s="93"/>
-      <c r="C70" s="93"/>
+      <c r="A70" s="87"/>
+      <c r="B70" s="88"/>
+      <c r="C70" s="88"/>
       <c r="D70" s="2" t="s">
         <v>9</v>
       </c>
@@ -3092,9 +3092,9 @@
       <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="92"/>
-      <c r="B71" s="93"/>
-      <c r="C71" s="93"/>
+      <c r="A71" s="87"/>
+      <c r="B71" s="88"/>
+      <c r="C71" s="88"/>
       <c r="D71" s="2" t="s">
         <v>9</v>
       </c>
@@ -3120,11 +3120,11 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="92" t="s">
+      <c r="A73" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="B73" s="93"/>
-      <c r="C73" s="93"/>
+      <c r="B73" s="88"/>
+      <c r="C73" s="88"/>
       <c r="D73" s="2" t="s">
         <v>13</v>
       </c>
@@ -3139,9 +3139,9 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="92"/>
-      <c r="B74" s="93"/>
-      <c r="C74" s="93"/>
+      <c r="A74" s="87"/>
+      <c r="B74" s="88"/>
+      <c r="C74" s="88"/>
       <c r="D74" s="2" t="s">
         <v>9</v>
       </c>
@@ -3154,9 +3154,9 @@
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="92"/>
-      <c r="B75" s="93"/>
-      <c r="C75" s="93"/>
+      <c r="A75" s="87"/>
+      <c r="B75" s="88"/>
+      <c r="C75" s="88"/>
       <c r="D75" s="2" t="s">
         <v>9</v>
       </c>
@@ -3169,9 +3169,9 @@
       <c r="G75" s="4"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="92"/>
-      <c r="B76" s="93"/>
-      <c r="C76" s="93"/>
+      <c r="A76" s="87"/>
+      <c r="B76" s="88"/>
+      <c r="C76" s="88"/>
       <c r="D76" s="2" t="s">
         <v>9</v>
       </c>
@@ -3197,11 +3197,11 @@
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="92" t="s">
+      <c r="A78" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="B78" s="93"/>
-      <c r="C78" s="93"/>
+      <c r="B78" s="88"/>
+      <c r="C78" s="88"/>
       <c r="D78" s="2" t="s">
         <v>13</v>
       </c>
@@ -3216,9 +3216,9 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="92"/>
-      <c r="B79" s="93"/>
-      <c r="C79" s="93"/>
+      <c r="A79" s="87"/>
+      <c r="B79" s="88"/>
+      <c r="C79" s="88"/>
       <c r="D79" s="2" t="s">
         <v>9</v>
       </c>
@@ -3233,9 +3233,9 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="105" customHeight="1">
-      <c r="A80" s="92"/>
-      <c r="B80" s="93"/>
-      <c r="C80" s="93"/>
+      <c r="A80" s="87"/>
+      <c r="B80" s="88"/>
+      <c r="C80" s="88"/>
       <c r="D80" s="2" t="s">
         <v>9</v>
       </c>
@@ -3261,11 +3261,11 @@
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="92" t="s">
+      <c r="A82" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="B82" s="93"/>
-      <c r="C82" s="93" t="s">
+      <c r="B82" s="88"/>
+      <c r="C82" s="88" t="s">
         <v>136</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -3282,9 +3282,9 @@
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="92"/>
-      <c r="B83" s="93"/>
-      <c r="C83" s="93"/>
+      <c r="A83" s="87"/>
+      <c r="B83" s="88"/>
+      <c r="C83" s="88"/>
       <c r="D83" s="2" t="s">
         <v>9</v>
       </c>
@@ -3297,9 +3297,9 @@
       <c r="G83" s="4"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="92"/>
-      <c r="B84" s="93"/>
-      <c r="C84" s="93"/>
+      <c r="A84" s="87"/>
+      <c r="B84" s="88"/>
+      <c r="C84" s="88"/>
       <c r="D84" s="2" t="s">
         <v>9</v>
       </c>
@@ -3325,14 +3325,14 @@
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="92" t="s">
+      <c r="A86" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="B86" s="93"/>
-      <c r="C86" s="92" t="s">
+      <c r="B86" s="88"/>
+      <c r="C86" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="D86" s="95" t="s">
+      <c r="D86" s="84" t="s">
         <v>9</v>
       </c>
       <c r="E86" s="33" t="s">
@@ -3344,10 +3344,10 @@
       <c r="G86" s="4"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="92"/>
-      <c r="B87" s="93"/>
-      <c r="C87" s="92"/>
-      <c r="D87" s="96"/>
+      <c r="A87" s="87"/>
+      <c r="B87" s="88"/>
+      <c r="C87" s="87"/>
+      <c r="D87" s="85"/>
       <c r="E87" s="32" t="s">
         <v>145</v>
       </c>
@@ -3357,10 +3357,10 @@
       <c r="G87" s="4"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="92"/>
-      <c r="B88" s="93"/>
-      <c r="C88" s="92"/>
-      <c r="D88" s="97"/>
+      <c r="A88" s="87"/>
+      <c r="B88" s="88"/>
+      <c r="C88" s="87"/>
+      <c r="D88" s="86"/>
       <c r="E88" s="32" t="s">
         <v>146</v>
       </c>
@@ -3370,9 +3370,9 @@
       <c r="G88" s="4"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="92"/>
-      <c r="B89" s="93"/>
-      <c r="C89" s="92"/>
+      <c r="A89" s="87"/>
+      <c r="B89" s="88"/>
+      <c r="C89" s="87"/>
       <c r="D89" s="2" t="s">
         <v>9</v>
       </c>
@@ -3398,11 +3398,11 @@
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="92" t="s">
+      <c r="A91" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="B91" s="93"/>
-      <c r="C91" s="92" t="s">
+      <c r="B91" s="88"/>
+      <c r="C91" s="87" t="s">
         <v>151</v>
       </c>
       <c r="D91" s="2" t="s">
@@ -3417,9 +3417,9 @@
       <c r="G91" s="4"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="92"/>
-      <c r="B92" s="92"/>
-      <c r="C92" s="92"/>
+      <c r="A92" s="87"/>
+      <c r="B92" s="87"/>
+      <c r="C92" s="87"/>
       <c r="D92" s="2" t="s">
         <v>9</v>
       </c>
@@ -3434,9 +3434,9 @@
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="92"/>
-      <c r="B93" s="92"/>
-      <c r="C93" s="92"/>
+      <c r="A93" s="87"/>
+      <c r="B93" s="87"/>
+      <c r="C93" s="87"/>
       <c r="D93" s="2" t="s">
         <v>9</v>
       </c>
@@ -3449,9 +3449,9 @@
       <c r="G93" s="4"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="92"/>
-      <c r="B94" s="92"/>
-      <c r="C94" s="92"/>
+      <c r="A94" s="87"/>
+      <c r="B94" s="87"/>
+      <c r="C94" s="87"/>
       <c r="D94" s="2" t="s">
         <v>9</v>
       </c>
@@ -3491,6 +3491,56 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="C78:C80"/>
     <mergeCell ref="D86:D88"/>
     <mergeCell ref="A91:A94"/>
     <mergeCell ref="B91:B94"/>
@@ -3501,56 +3551,6 @@
     <mergeCell ref="A86:A89"/>
     <mergeCell ref="B86:B89"/>
     <mergeCell ref="C86:C89"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{A2F3A9F3-D399-4DBA-B2A6-837F2CB9A7BA}"/>
@@ -3635,8 +3635,8 @@
   </sheetPr>
   <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="D36" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5598,41 +5598,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
     <mergeCell ref="A18:A23"/>
     <mergeCell ref="B18:B23"/>
     <mergeCell ref="A1:F1"/>
@@ -5640,6 +5605,41 @@
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="B10:B16"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{0799226B-874C-4709-8B50-7D16C23CB9CA}"/>
